--- a/data/trans_orig/Q02G_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q02G_R-Dificultad-trans_orig.xlsx
@@ -617,10 +617,10 @@
         <v>4.10851810249607</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>4.097619595026086</v>
+        <v>4.097619595026087</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>4.235227404512279</v>
+        <v>4.235227404512278</v>
       </c>
     </row>
     <row r="5">
@@ -631,22 +631,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.74769754757949</v>
+        <v>2.777129588615637</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.071902847731037</v>
+        <v>2.959041227115834</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.471738059929697</v>
+        <v>3.451079106363525</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.43468665570542</v>
+        <v>3.433273177984022</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.453427868000952</v>
+        <v>3.479235999135806</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.50876558264906</v>
+        <v>3.439193263086597</v>
       </c>
     </row>
     <row r="6">
@@ -657,22 +657,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.930889961884214</v>
+        <v>4.88493717837965</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.881872225441921</v>
+        <v>9.479893516903022</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.444472730294013</v>
+        <v>5.329398046427806</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.289655876952297</v>
+        <v>5.240698261095302</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.935713190886196</v>
+        <v>4.979195850810878</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.418861084107951</v>
+        <v>5.329316976768732</v>
       </c>
     </row>
     <row r="7">
@@ -690,7 +690,7 @@
         <v>3.712762488288221</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>4.26237544963117</v>
+        <v>4.262375449631169</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>3.175364808348633</v>
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.678006406285011</v>
+        <v>2.598553191936722</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.808557149470444</v>
+        <v>2.830466874578069</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.392988777542906</v>
+        <v>2.424665559191461</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.080688047714649</v>
+        <v>3.104208625642845</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>2.683877781022442</v>
+        <v>2.687783682893293</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>3.267657195749263</v>
+        <v>3.223903604422225</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.002348137749238</v>
+        <v>4.948251648469467</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.41935619425114</v>
+        <v>6.221276544451205</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.428419349299147</v>
+        <v>4.564488587752374</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.372749236747154</v>
+        <v>5.41656990221122</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>4.284711149828326</v>
+        <v>4.312224299476685</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>5.166002481279605</v>
+        <v>5.205382815129911</v>
       </c>
     </row>
     <row r="10">
@@ -784,7 +784,7 @@
         <v>3.909218348428562</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>3.844156571658089</v>
+        <v>3.844156571658088</v>
       </c>
     </row>
     <row r="11">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.34248489311573</v>
+        <v>2.246208825689694</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.825390246160779</v>
+        <v>1.740777388530955</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.039285530360148</v>
+        <v>3.078649177090252</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.783142813915791</v>
+        <v>2.779706122401171</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.181524667844002</v>
+        <v>3.083505591562948</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.735921471146924</v>
+        <v>2.73996418544199</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.72144447083559</v>
+        <v>6.74179189229382</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.256644913213019</v>
+        <v>4.063771023902666</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.266315805641502</v>
+        <v>5.412439462983953</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.487228562492575</v>
+        <v>7.711908861953832</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>5.292235281263881</v>
+        <v>5.076635714343465</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.163670622784234</v>
+        <v>6.00982677102802</v>
       </c>
     </row>
     <row r="13">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.787009064997518</v>
+        <v>1.789130821784601</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.307311305136999</v>
+        <v>1.318973563840035</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.204820993384011</v>
+        <v>3.264806803065503</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.779849069658765</v>
+        <v>2.705880884055599</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>3.006685587949637</v>
+        <v>2.914391775040126</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>2.34839360621821</v>
+        <v>2.388870754207027</v>
       </c>
     </row>
     <row r="15">
@@ -903,22 +903,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.540689960212933</v>
+        <v>5.396886698916521</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.502540001461021</v>
+        <v>2.627059142090478</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.397937507075481</v>
+        <v>5.436353299873198</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.618286365805197</v>
+        <v>4.717480352091106</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>4.970438228688919</v>
+        <v>4.930710981392273</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>3.807760316266951</v>
+        <v>3.866606139649913</v>
       </c>
     </row>
     <row r="16">
@@ -942,13 +942,13 @@
         <v>3.927793035337523</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4.046387771740472</v>
+        <v>4.046387771740473</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>3.827727560496572</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>3.918641669342509</v>
+        <v>3.91864166934251</v>
       </c>
     </row>
     <row r="17">
@@ -959,22 +959,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.928828834564606</v>
+        <v>2.895729127048899</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.830809593444266</v>
+        <v>2.824039725231824</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.465944883632257</v>
+        <v>3.406393291777655</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.494803660045183</v>
+        <v>3.455412711605845</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>3.40736050369651</v>
+        <v>3.404909386776233</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.488285893476387</v>
+        <v>3.419036698918279</v>
       </c>
     </row>
     <row r="18">
@@ -985,22 +985,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.349759112272706</v>
+        <v>4.360777909903164</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.929757563725275</v>
+        <v>5.020704576074951</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.488359147506339</v>
+        <v>4.520165404940597</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.885254197033425</v>
+        <v>4.752269104904605</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.305858065459699</v>
+        <v>4.321688304921881</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.615556331445692</v>
+        <v>4.535169864092125</v>
       </c>
     </row>
     <row r="19">
